--- a/py_test_ui/EXCEL FILE/recordCal_PM.xlsx
+++ b/py_test_ui/EXCEL FILE/recordCal_PM.xlsx
@@ -1307,8 +1307,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -1410,8 +1418,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -1513,8 +1529,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1616,8 +1640,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -1719,8 +1751,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1822,8 +1862,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1925,8 +1973,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -2028,8 +2084,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -2131,8 +2195,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -2234,8 +2306,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -2337,8 +2417,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -2440,8 +2528,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -2543,8 +2639,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -2646,8 +2750,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -2749,8 +2861,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -2852,8 +2972,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -2955,8 +3083,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -3058,8 +3194,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -3161,8 +3305,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -3264,8 +3416,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -3367,8 +3527,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -3470,8 +3638,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -3573,8 +3749,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -3676,8 +3860,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3779,8 +3971,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -3882,8 +4082,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -3985,8 +4193,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -4088,8 +4304,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -4191,8 +4415,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -4294,8 +4526,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -4397,8 +4637,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -4500,8 +4748,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -4603,8 +4859,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -4706,8 +4970,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -4809,8 +5081,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -4912,8 +5192,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -5015,8 +5303,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -5118,8 +5414,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -5221,8 +5525,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -5324,8 +5636,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -5427,8 +5747,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -5530,8 +5858,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -5633,8 +5969,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -5736,8 +6080,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -5839,8 +6191,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -5942,8 +6302,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -6045,8 +6413,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -6148,8 +6524,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -6251,8 +6635,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -6354,8 +6746,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -6457,8 +6857,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -6560,8 +6968,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -6663,8 +7079,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -6766,8 +7190,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -6869,8 +7301,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -6972,8 +7412,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -7075,8 +7523,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -7178,8 +7634,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -7281,8 +7745,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -7384,8 +7856,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -7487,8 +7967,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -7590,8 +8078,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -7693,8 +8189,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -7796,8 +8300,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -7899,8 +8411,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -8002,8 +8522,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -8105,8 +8633,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -8208,8 +8744,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -8311,8 +8855,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -8414,8 +8966,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -8517,8 +9077,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -8620,8 +9188,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -8723,8 +9299,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y74" t="inlineStr"/>
     </row>
     <row r="75">
@@ -8826,8 +9410,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -8929,8 +9521,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -9032,8 +9632,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -9135,8 +9743,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -9238,8 +9854,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -9341,8 +9965,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -9444,8 +10076,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -9547,8 +10187,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -9650,8 +10298,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -9753,8 +10409,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -9856,8 +10520,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -9959,8 +10631,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -10062,8 +10742,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y87" t="inlineStr"/>
     </row>
     <row r="88">
@@ -10165,8 +10853,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -10268,8 +10964,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -10371,8 +11075,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -10474,8 +11186,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -10577,8 +11297,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -10680,8 +11408,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -10783,8 +11519,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -10886,8 +11630,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -10989,8 +11741,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -11092,8 +11852,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -11195,8 +11963,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -11298,8 +12074,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -11401,8 +12185,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -11504,8 +12296,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y101" t="inlineStr"/>
     </row>
     <row r="102">
@@ -11607,8 +12407,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y102" t="inlineStr"/>
     </row>
     <row r="103">
@@ -11710,8 +12518,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y103" t="inlineStr"/>
     </row>
     <row r="104">
@@ -11813,8 +12629,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -11916,8 +12740,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -12019,8 +12851,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -12122,8 +12962,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -12225,8 +13073,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y108" t="inlineStr"/>
     </row>
     <row r="109">
@@ -12328,8 +13184,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -12431,8 +13295,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -12534,8 +13406,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y111" t="inlineStr"/>
     </row>
     <row r="112">
@@ -12637,8 +13517,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -12740,8 +13628,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -12843,8 +13739,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -12946,8 +13850,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -13049,8 +13961,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -13152,8 +14072,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -13255,8 +14183,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y118" t="inlineStr"/>
     </row>
     <row r="119">
@@ -13358,8 +14294,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -13461,8 +14405,16 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>No File To Attach</t>
+        </is>
+      </c>
       <c r="Y120" t="inlineStr"/>
     </row>
   </sheetData>

--- a/py_test_ui/EXCEL FILE/recordCal_PM.xlsx
+++ b/py_test_ui/EXCEL FILE/recordCal_PM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA542"/>
+  <dimension ref="A1:AA545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59539,6 +59539,333 @@
       <c r="Z542" t="inlineStr"/>
       <c r="AA542" t="inlineStr"/>
     </row>
+    <row r="543">
+      <c r="A543" t="inlineStr"/>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>425946</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>PYT3_09960</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>SOM KONKAEW</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="M543" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N543" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O543" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P543" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q543" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="R543" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="S543" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T543" t="inlineStr"/>
+      <c r="U543" t="inlineStr"/>
+      <c r="V543" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W543" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X543" t="inlineStr"/>
+      <c r="Y543" t="inlineStr"/>
+      <c r="Z543" t="inlineStr"/>
+      <c r="AA543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr"/>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>109972</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>PYT3_04692</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>SOM KONKAEW</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>24/06/2025</t>
+        </is>
+      </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>24/06/2025</t>
+        </is>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>24/06/2025</t>
+        </is>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>24/06/2025</t>
+        </is>
+      </c>
+      <c r="M544" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N544" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O544" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P544" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q544" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="R544" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="S544" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T544" t="inlineStr"/>
+      <c r="U544" t="inlineStr"/>
+      <c r="V544" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W544" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X544" t="inlineStr"/>
+      <c r="Y544" t="inlineStr"/>
+      <c r="Z544" t="inlineStr"/>
+      <c r="AA544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr"/>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>40114</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>PYT3_02521</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>SOM KONKAEW</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="M545" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N545" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O545" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P545" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q545" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="R545" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="S545" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T545" t="inlineStr"/>
+      <c r="U545" t="inlineStr"/>
+      <c r="V545" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W545" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X545" t="inlineStr"/>
+      <c r="Y545" t="inlineStr"/>
+      <c r="Z545" t="inlineStr"/>
+      <c r="AA545" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py_test_ui/EXCEL FILE/recordCal_PM.xlsx
+++ b/py_test_ui/EXCEL FILE/recordCal_PM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,14 +571,10 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>430258</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PYT3T_10103</t>
+          <t>PYT3_01766</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -598,27 +594,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/09/2025</t>
+          <t>01/12/2025</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>30/09/2025</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5/9/2025</t>
+          <t>4/12/2025</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1/10/2025</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>5/9/2025</t>
+          <t>4/12/2025</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -684,254 +680,6 @@
         </is>
       </c>
       <c r="Z2" t="inlineStr">
-        <is>
-          <t>OPD SURGERY(ศัลยกรรม)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>430259</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>PYT3T_10104</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BME</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DARANPHOP YIMYAM</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>01/09/2025</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>30/09/2025</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>5/9/2025</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1/10/2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>5/9/2025</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>7/1/2026</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>566152</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>ITTIPAT IEMDEE</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>PM doable</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Perform CAL</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>OPD SURGERY(ศัลยกรรม)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>37993</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PYT3_01766</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BME</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SOM KONKAEW</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>01/12/2025</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>31/12/2025</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>4/12/2025</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>4/12/2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>4/12/2025</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>7/1/2026</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>566152</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>ITTIPAT IEMDEE</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>PM doable</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Perform CAL</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
         <is>
           <t>GASTROINTESTINAL LABORATORY(GI)</t>
         </is>

--- a/py_test_ui/EXCEL FILE/recordCal_PM.xlsx
+++ b/py_test_ui/EXCEL FILE/recordCal_PM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,60 +566,60 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>191654</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PYT3_01766</t>
+          <t>PYT3_06030</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BME</t>
+          <t>Maintenance &amp; Calibrate Unit</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DARANPHOP YIMYAM</t>
+          <t>PANALEE UEASUNTHONNOP</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/12/2025</t>
+          <t>01/01/2026</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>31/12/2025</t>
+          <t>31/01/2026</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4/12/2025</t>
+          <t>09/01/2026</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>31/12/2025</t>
+          <t>09/01/2026</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>4/12/2025</t>
+          <t>09/01/2026</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7/1/2026</t>
+          <t>09/01/2026</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -644,46 +644,2410 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>PM doable</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>Perform CAL</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
+          <t>Electrical Safety Analyzer</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>371519</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PYT3_08912_1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>GASTROINTESTINAL LABORATORY(GI)</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>371508</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PYT3_08912</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Electrical Safety Analyzer</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>147186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PYT3_05547</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>376278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PYT3_09006</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>33621</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PYT3D_00630</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>40227</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PYT3_02634</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>147102</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PYT3_05463</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>261381</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PYT3_07407</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>261382</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PYT3_07408</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>289526</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PYT3_07596</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>289543</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PYT3_07609</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>328170</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PYT3_08463</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>328171</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PYT3_08464</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>328172</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PYT3_08465</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>328173</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PYT3_08466</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>328174</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PYT3_08467</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>328177</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PYT3_08470</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>328179</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PYT3_08472</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>368985</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PYT3_08889</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>433610</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PYT3_10172</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>216618</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PYT3_06543</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Electrical Safety Analyzer</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>375089</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PYT3_08956</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>09/01/2026</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Electrical Safety Analyzer</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>PM Work not found</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/py_test_ui/EXCEL FILE/recordCal_PM.xlsx
+++ b/py_test_ui/EXCEL FILE/recordCal_PM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="173">
   <si>
     <t xml:space="preserve">N0</t>
   </si>
@@ -356,6 +356,189 @@
   </si>
   <si>
     <t xml:space="preserve">PYT3_08715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_04921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/01/2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">308862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_08097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">276714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_07577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3D_00653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_05453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_00113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_02931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_05923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">297068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_07804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">418280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_09631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_02479_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">289534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_04921_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">289532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_08097_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_02479_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_02479_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_02479_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_00165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_02479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_01899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_05840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">378952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_09048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">408613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_09516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">408614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_09517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">371802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_08922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_00182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_00221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_01849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3D_00106</t>
   </si>
 </sst>
 </file>
@@ -445,13 +628,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -646,10 +833,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2:AB37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R73" activeCellId="0" sqref="R73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -735,6 +922,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>26</v>
       </c>
@@ -797,6 +987,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>40</v>
       </c>
@@ -859,6 +1052,9 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="B4" s="0" t="s">
         <v>43</v>
       </c>
@@ -921,6 +1117,9 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="B5" s="0" t="s">
         <v>45</v>
       </c>
@@ -983,6 +1182,9 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="B6" s="0" t="s">
         <v>47</v>
       </c>
@@ -1045,6 +1247,9 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
       <c r="B7" s="0" t="s">
         <v>49</v>
       </c>
@@ -1107,6 +1312,9 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="B8" s="0" t="s">
         <v>51</v>
       </c>
@@ -1169,6 +1377,9 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
       <c r="B9" s="0" t="s">
         <v>53</v>
       </c>
@@ -1231,6 +1442,9 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
       <c r="B10" s="0" t="s">
         <v>55</v>
       </c>
@@ -1293,6 +1507,9 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
       <c r="B11" s="0" t="s">
         <v>57</v>
       </c>
@@ -1355,6 +1572,9 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
       <c r="B12" s="0" t="s">
         <v>59</v>
       </c>
@@ -1417,6 +1637,9 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
       <c r="B13" s="0" t="s">
         <v>61</v>
       </c>
@@ -1479,6 +1702,9 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
       <c r="B14" s="0" t="s">
         <v>63</v>
       </c>
@@ -1541,6 +1767,9 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
       <c r="B15" s="0" t="s">
         <v>65</v>
       </c>
@@ -1603,6 +1832,9 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="B16" s="0" t="s">
         <v>67</v>
       </c>
@@ -1665,6 +1897,9 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="B17" s="0" t="s">
         <v>69</v>
       </c>
@@ -1727,6 +1962,9 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
       <c r="B18" s="0" t="s">
         <v>71</v>
       </c>
@@ -1789,6 +2027,9 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
       <c r="B19" s="0" t="s">
         <v>73</v>
       </c>
@@ -1851,6 +2092,9 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
       <c r="B20" s="0" t="s">
         <v>75</v>
       </c>
@@ -1913,6 +2157,9 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
       <c r="B21" s="0" t="s">
         <v>77</v>
       </c>
@@ -1975,6 +2222,9 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
       <c r="B22" s="0" t="s">
         <v>79</v>
       </c>
@@ -2037,6 +2287,9 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
       <c r="B23" s="0" t="s">
         <v>81</v>
       </c>
@@ -2099,6 +2352,9 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
       <c r="B24" s="0" t="s">
         <v>83</v>
       </c>
@@ -2161,6 +2417,9 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>24</v>
+      </c>
       <c r="B25" s="0" t="s">
         <v>85</v>
       </c>
@@ -2223,6 +2482,9 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
       <c r="B26" s="0" t="s">
         <v>88</v>
       </c>
@@ -2285,6 +2547,9 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>26</v>
+      </c>
       <c r="B27" s="0" t="s">
         <v>90</v>
       </c>
@@ -2347,6 +2612,9 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>27</v>
+      </c>
       <c r="B28" s="0" t="s">
         <v>92</v>
       </c>
@@ -2409,6 +2677,9 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>28</v>
+      </c>
       <c r="B29" s="0" t="s">
         <v>94</v>
       </c>
@@ -2471,6 +2742,9 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>29</v>
+      </c>
       <c r="B30" s="0" t="s">
         <v>96</v>
       </c>
@@ -2533,6 +2807,9 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>30</v>
+      </c>
       <c r="B31" s="0" t="s">
         <v>98</v>
       </c>
@@ -2595,6 +2872,9 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>31</v>
+      </c>
       <c r="B32" s="0" t="s">
         <v>100</v>
       </c>
@@ -2657,6 +2937,9 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>32</v>
+      </c>
       <c r="B33" s="0" t="s">
         <v>102</v>
       </c>
@@ -2719,6 +3002,9 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>33</v>
+      </c>
       <c r="B34" s="0" t="s">
         <v>104</v>
       </c>
@@ -2781,6 +3067,9 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>34</v>
+      </c>
       <c r="B35" s="0" t="s">
         <v>106</v>
       </c>
@@ -2843,6 +3132,9 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>35</v>
+      </c>
       <c r="B36" s="0" t="s">
         <v>108</v>
       </c>
@@ -2905,6 +3197,9 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>36</v>
+      </c>
       <c r="B37" s="0" t="s">
         <v>110</v>
       </c>
@@ -2963,6 +3258,1956 @@
         <v>39</v>
       </c>
       <c r="W37" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W38" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R39" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V39" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W39" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R40" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V40" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W40" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R41" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S41" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V41" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W41" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R42" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S42" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V42" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W42" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R43" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S43" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V43" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W43" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q44" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R44" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S44" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V44" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W44" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q45" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R45" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S45" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V45" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W45" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W46" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R47" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V47" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W47" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R48" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S48" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V48" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W48" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R49" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V49" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W49" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R50" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S50" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V50" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W50" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R51" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V51" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W51" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q52" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R52" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S52" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V52" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W52" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q53" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R53" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S53" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V53" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W53" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P54" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q54" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R54" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S54" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V54" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W54" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q55" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R55" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S55" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V55" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W55" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q56" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R56" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S56" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V56" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W56" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P57" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q57" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R57" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S57" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V57" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W57" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O58" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P58" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q58" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R58" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S58" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V58" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W58" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P59" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q59" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R59" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S59" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V59" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W59" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O60" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P60" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q60" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R60" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S60" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V60" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W60" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P61" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q61" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R61" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S61" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V61" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W61" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N62" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O62" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P62" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q62" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R62" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S62" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V62" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W62" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O63" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P63" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q63" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R63" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S63" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V63" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W63" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O64" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P64" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q64" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R64" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S64" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V64" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W64" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M65" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N65" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O65" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P65" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q65" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R65" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S65" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V65" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W65" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P66" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q66" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R66" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S66" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V66" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W66" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M67" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N67" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O67" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P67" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q67" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R67" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S67" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V67" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W67" s="0" t="s">
         <v>39</v>
       </c>
     </row>

--- a/py_test_ui/EXCEL FILE/recordCal_PM.xlsx
+++ b/py_test_ui/EXCEL FILE/recordCal_PM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4065" uniqueCount="628">
   <si>
     <t xml:space="preserve">N0</t>
   </si>
@@ -565,195 +565,195 @@
     <t xml:space="preserve">PYT3_05923</t>
   </si>
   <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">297068</t>
+  </si>
+  <si>
     <t xml:space="preserve">PYT3_07804</t>
   </si>
   <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">297068</t>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">418280</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_09631</t>
   </si>
   <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">418280</t>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39103</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_02479_3</t>
   </si>
   <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39103</t>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">289534</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_04921_1</t>
   </si>
   <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">289534</t>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">289532</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_08097_1</t>
   </si>
   <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">289532</t>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39100</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_02479_1</t>
   </si>
   <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39100</t>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32157</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_02479_2</t>
   </si>
   <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32157</t>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39099</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_02479_4</t>
   </si>
   <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39099</t>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32069</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_00165</t>
   </si>
   <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32069</t>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39102</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_02479</t>
   </si>
   <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39102</t>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191703</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_06079</t>
   </si>
   <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191703</t>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38126</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_01899</t>
   </si>
   <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38126</t>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179392</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_05840</t>
   </si>
   <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179392</t>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216565</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_06490</t>
   </si>
   <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216565</t>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">378952</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_09048</t>
   </si>
   <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">378952</t>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">408613</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_09516</t>
   </si>
   <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">408613</t>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">408614</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_09517</t>
   </si>
   <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">408614</t>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">371802</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_08922</t>
   </si>
   <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">371802</t>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32086</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_00182</t>
   </si>
   <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32086</t>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32125</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_00221</t>
   </si>
   <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32125</t>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38076</t>
   </si>
   <si>
     <t xml:space="preserve">PYT3_01849</t>
   </si>
   <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38076</t>
-  </si>
-  <si>
     <t xml:space="preserve">66</t>
   </si>
   <si>
@@ -1043,6 +1043,867 @@
   </si>
   <si>
     <t xml:space="preserve">PYT3_01848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_05967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/01/2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_09071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_05583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_05928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_05929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_05930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_00428_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_00428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">261070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_07196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_08122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_08125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_08127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">394333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_09167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_00437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_00904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_01508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_08361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_08713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">368996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_08900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">397535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_09194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">388366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_09152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_00929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_01421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_01867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_05002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_05335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_05414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_05917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_07080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">276704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_07567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">289540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_07610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_08658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">368992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_08896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_02026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_02027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_02031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_02032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">378955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_09051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/01/2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3D_02913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_08152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">276721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_07584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_09082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_09083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3D_00761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3D_00765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3D_01769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3D_01774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3D_02274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3D_02433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3D_02513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_05932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3D_05927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_01654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_01655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_00436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_08123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_08129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_08726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_08727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_09315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">413230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_09608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_00908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_01488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_01489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_01711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_02181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_02182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_02183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_04713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_06639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_00578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_09085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_04508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_01852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT3_01853</t>
   </si>
 </sst>
 </file>
@@ -1333,10 +2194,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG98"/>
+  <dimension ref="A1:AG1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M198" activeCellId="0" sqref="M198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3846,9 +4707,6 @@
       <c r="W38" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG38" s="0" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -3914,9 +4772,6 @@
       <c r="W39" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG39" s="0" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -3982,9 +4837,6 @@
       <c r="W40" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG40" s="0" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -4050,9 +4902,6 @@
       <c r="W41" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG41" s="0" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -4118,9 +4967,6 @@
       <c r="W42" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG42" s="0" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -4186,9 +5032,6 @@
       <c r="W43" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG43" s="0" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -4254,9 +5097,6 @@
       <c r="W44" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG44" s="0" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -4322,19 +5162,16 @@
       <c r="W45" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG45" s="0" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="C46" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>181</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>36</v>
@@ -4390,19 +5227,16 @@
       <c r="W46" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG46" s="0" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="C47" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>184</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>36</v>
@@ -4458,19 +5292,16 @@
       <c r="W47" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG47" s="0" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="C48" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>187</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>36</v>
@@ -4526,19 +5357,16 @@
       <c r="W48" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG48" s="0" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="C49" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>190</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>36</v>
@@ -4594,19 +5422,16 @@
       <c r="W49" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG49" s="0" t="s">
-        <v>193</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="C50" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>36</v>
@@ -4662,19 +5487,16 @@
       <c r="W50" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG50" s="0" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="C51" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>196</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>36</v>
@@ -4730,19 +5552,16 @@
       <c r="W51" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG51" s="0" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="C52" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>199</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>36</v>
@@ -4798,19 +5617,16 @@
       <c r="W52" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG52" s="0" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="C53" s="0" t="s">
         <v>204</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>202</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>36</v>
@@ -4866,19 +5682,16 @@
       <c r="W53" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG53" s="0" t="s">
-        <v>205</v>
-      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="C54" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>205</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>36</v>
@@ -4934,19 +5747,16 @@
       <c r="W54" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG54" s="0" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B55" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="C55" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>208</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>36</v>
@@ -5002,19 +5812,16 @@
       <c r="W55" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG55" s="0" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="C56" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>211</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>36</v>
@@ -5070,19 +5877,16 @@
       <c r="W56" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG56" s="0" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="C57" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>36</v>
@@ -5138,19 +5942,16 @@
       <c r="W57" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG57" s="0" t="s">
-        <v>217</v>
-      </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="C58" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>217</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>36</v>
@@ -5206,19 +6007,16 @@
       <c r="W58" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG58" s="0" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="C59" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>220</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>36</v>
@@ -5274,19 +6072,16 @@
       <c r="W59" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG59" s="0" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="C60" s="0" t="s">
         <v>225</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>223</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>36</v>
@@ -5342,19 +6137,16 @@
       <c r="W60" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG60" s="0" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="C61" s="0" t="s">
         <v>228</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>226</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>36</v>
@@ -5410,19 +6202,16 @@
       <c r="W61" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG61" s="0" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B62" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="C62" s="0" t="s">
         <v>231</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>229</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>36</v>
@@ -5478,19 +6267,16 @@
       <c r="W62" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG62" s="0" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="C63" s="0" t="s">
         <v>234</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>232</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>36</v>
@@ -5546,19 +6332,16 @@
       <c r="W63" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG63" s="0" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="C64" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>235</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>36</v>
@@ -5614,19 +6397,16 @@
       <c r="W64" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG64" s="0" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="C65" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>238</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>36</v>
@@ -5682,19 +6462,16 @@
       <c r="W65" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AG65" s="0" t="s">
-        <v>241</v>
-      </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="C66" s="0" t="s">
         <v>243</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>241</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>36</v>
@@ -7831,6 +8608,6182 @@
         <v>48</v>
       </c>
     </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I99" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L99" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M99" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N99" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O99" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P99" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q99" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R99" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S99" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V99" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W99" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I100" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J100" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L100" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M100" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N100" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O100" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P100" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q100" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R100" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S100" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V100" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W100" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H101" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I101" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L101" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M101" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N101" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O101" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P101" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q101" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R101" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S101" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V101" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W101" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J102" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K102" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L102" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M102" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N102" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O102" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P102" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q102" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R102" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S102" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V102" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W102" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J103" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K103" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L103" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M103" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N103" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O103" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P103" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q103" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R103" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S103" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V103" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W103" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J104" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K104" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L104" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M104" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N104" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O104" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P104" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q104" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R104" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S104" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V104" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W104" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L105" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M105" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N105" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O105" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P105" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q105" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R105" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S105" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="V105" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W105" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I106" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L106" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M106" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N106" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O106" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P106" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q106" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R106" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S106" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V106" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W106" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I107" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J107" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L107" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M107" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N107" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O107" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P107" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q107" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R107" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S107" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V107" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W107" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H108" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I108" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K108" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L108" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M108" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N108" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O108" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P108" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q108" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R108" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S108" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V108" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W108" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I109" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L109" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M109" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N109" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O109" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P109" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q109" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R109" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S109" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V109" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W109" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I110" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K110" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L110" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M110" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N110" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O110" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P110" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q110" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R110" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S110" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V110" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W110" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L111" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M111" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N111" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O111" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P111" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q111" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R111" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S111" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V111" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W111" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I112" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K112" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L112" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M112" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N112" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O112" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P112" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q112" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R112" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S112" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V112" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W112" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I113" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J113" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L113" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M113" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N113" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O113" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P113" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q113" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R113" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S113" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V113" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W113" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I114" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J114" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K114" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L114" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M114" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N114" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O114" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P114" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q114" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R114" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S114" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V114" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W114" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K115" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L115" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M115" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N115" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O115" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P115" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q115" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R115" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S115" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V115" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W115" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K116" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L116" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M116" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N116" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O116" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P116" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q116" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R116" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S116" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V116" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W116" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K117" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L117" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M117" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N117" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O117" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P117" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q117" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R117" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S117" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V117" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W117" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J118" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K118" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L118" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M118" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N118" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O118" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P118" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q118" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R118" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S118" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V118" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W118" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J119" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L119" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M119" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N119" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O119" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P119" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q119" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R119" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S119" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V119" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W119" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K120" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L120" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M120" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N120" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O120" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P120" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q120" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R120" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S120" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V120" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W120" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J121" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L121" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M121" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N121" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O121" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P121" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q121" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R121" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S121" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V121" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W121" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J122" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L122" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M122" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N122" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O122" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P122" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q122" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R122" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S122" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V122" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W122" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H123" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J123" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L123" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M123" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N123" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O123" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P123" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q123" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R123" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S123" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V123" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W123" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H124" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I124" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J124" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L124" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M124" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N124" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O124" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P124" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q124" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R124" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S124" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V124" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W124" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G125" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I125" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J125" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K125" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L125" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M125" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N125" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O125" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P125" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q125" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R125" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S125" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V125" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W125" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H126" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I126" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J126" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K126" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L126" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M126" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N126" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O126" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P126" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q126" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R126" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S126" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V126" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W126" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G127" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H127" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I127" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J127" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K127" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L127" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M127" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N127" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O127" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P127" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q127" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R127" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S127" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V127" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W127" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H128" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I128" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J128" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K128" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L128" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M128" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N128" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O128" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P128" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q128" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R128" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S128" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V128" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W128" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H129" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I129" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J129" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L129" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M129" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N129" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O129" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P129" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q129" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R129" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S129" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V129" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W129" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H130" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I130" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J130" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K130" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L130" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M130" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N130" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O130" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P130" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q130" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R130" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S130" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V130" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W130" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I131" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J131" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K131" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L131" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M131" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N131" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O131" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P131" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q131" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R131" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S131" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V131" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W131" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H132" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I132" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J132" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K132" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L132" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M132" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N132" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O132" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P132" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q132" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R132" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S132" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V132" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W132" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G133" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H133" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I133" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J133" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K133" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L133" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M133" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N133" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O133" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P133" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q133" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R133" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S133" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V133" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W133" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G134" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H134" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I134" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J134" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K134" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L134" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M134" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N134" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O134" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P134" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q134" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R134" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S134" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V134" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W134" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G135" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H135" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I135" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J135" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K135" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L135" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M135" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N135" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O135" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P135" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q135" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R135" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S135" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V135" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W135" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G136" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H136" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I136" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J136" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K136" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L136" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M136" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N136" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O136" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P136" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q136" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R136" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S136" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V136" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W136" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G137" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H137" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I137" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J137" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K137" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L137" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M137" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N137" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O137" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P137" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q137" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R137" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S137" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V137" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W137" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G138" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H138" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I138" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J138" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K138" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L138" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M138" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N138" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O138" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P138" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q138" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R138" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S138" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V138" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W138" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G139" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H139" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I139" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J139" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K139" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L139" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M139" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N139" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O139" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P139" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q139" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R139" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S139" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V139" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W139" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F140" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H140" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I140" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J140" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K140" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L140" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M140" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N140" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O140" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P140" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q140" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R140" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S140" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V140" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W140" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G141" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H141" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I141" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J141" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K141" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L141" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M141" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N141" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O141" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P141" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q141" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R141" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S141" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V141" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W141" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H142" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I142" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J142" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K142" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L142" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M142" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N142" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O142" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P142" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q142" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R142" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S142" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V142" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W142" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G143" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H143" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I143" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J143" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K143" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L143" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M143" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N143" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O143" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P143" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q143" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R143" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S143" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V143" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W143" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H144" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I144" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J144" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K144" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L144" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M144" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N144" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O144" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P144" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q144" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R144" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S144" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V144" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W144" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G145" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H145" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I145" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J145" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K145" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L145" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M145" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N145" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O145" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P145" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q145" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R145" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S145" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V145" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W145" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F146" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G146" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H146" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I146" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J146" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K146" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L146" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M146" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N146" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O146" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P146" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q146" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R146" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S146" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V146" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W146" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G147" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H147" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I147" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J147" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K147" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L147" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="M147" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N147" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O147" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P147" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q147" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R147" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S147" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V147" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W147" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F148" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G148" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H148" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I148" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J148" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K148" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L148" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M148" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N148" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O148" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P148" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q148" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R148" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S148" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V148" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W148" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F149" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G149" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H149" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I149" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J149" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K149" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L149" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M149" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N149" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O149" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P149" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q149" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R149" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S149" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V149" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W149" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F150" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G150" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H150" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I150" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J150" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K150" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L150" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M150" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N150" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O150" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P150" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q150" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R150" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S150" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V150" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W150" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F151" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G151" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H151" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I151" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J151" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K151" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L151" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M151" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N151" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O151" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P151" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q151" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R151" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S151" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V151" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W151" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F152" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G152" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H152" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I152" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J152" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K152" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L152" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M152" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N152" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O152" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P152" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q152" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R152" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S152" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V152" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W152" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F153" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G153" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H153" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I153" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J153" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K153" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L153" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M153" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N153" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O153" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P153" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q153" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R153" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S153" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="V153" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W153" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F154" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G154" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H154" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I154" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J154" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K154" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L154" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M154" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N154" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O154" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P154" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q154" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R154" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S154" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="V154" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W154" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F155" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G155" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H155" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I155" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J155" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K155" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L155" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M155" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N155" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O155" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P155" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q155" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R155" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S155" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="V155" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W155" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F156" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G156" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H156" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I156" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J156" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K156" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L156" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M156" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N156" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O156" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P156" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q156" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R156" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S156" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="V156" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W156" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F157" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G157" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H157" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I157" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J157" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K157" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L157" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M157" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N157" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O157" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P157" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q157" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R157" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S157" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="V157" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W157" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F158" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G158" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H158" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I158" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J158" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K158" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L158" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M158" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N158" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O158" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P158" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q158" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R158" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S158" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="V158" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W158" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F159" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G159" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H159" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I159" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J159" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K159" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L159" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M159" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N159" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O159" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P159" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q159" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R159" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S159" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="V159" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W159" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F160" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G160" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H160" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I160" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J160" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K160" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L160" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M160" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N160" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O160" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P160" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q160" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R160" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S160" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="V160" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W160" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F161" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G161" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H161" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I161" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J161" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K161" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L161" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M161" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N161" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O161" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P161" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q161" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R161" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S161" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="V161" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W161" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F162" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G162" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H162" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I162" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J162" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K162" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L162" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M162" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N162" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O162" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P162" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q162" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R162" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S162" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V162" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W162" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F163" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G163" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H163" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I163" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J163" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K163" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L163" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M163" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N163" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O163" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P163" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q163" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R163" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S163" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V163" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W163" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F164" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G164" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H164" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I164" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J164" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K164" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L164" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M164" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N164" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O164" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P164" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q164" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R164" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S164" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V164" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W164" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F165" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G165" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H165" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I165" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J165" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K165" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L165" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M165" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N165" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O165" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P165" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q165" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R165" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S165" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V165" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W165" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F166" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G166" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H166" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I166" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J166" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K166" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L166" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M166" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N166" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O166" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P166" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q166" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R166" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S166" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V166" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W166" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F167" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G167" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H167" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I167" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J167" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K167" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L167" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M167" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N167" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O167" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P167" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q167" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R167" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S167" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V167" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W167" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F168" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G168" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H168" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I168" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J168" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K168" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L168" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M168" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N168" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O168" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P168" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q168" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R168" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S168" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V168" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W168" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F169" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G169" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H169" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I169" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J169" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K169" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L169" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M169" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N169" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O169" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P169" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q169" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R169" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S169" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V169" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W169" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F170" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G170" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H170" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I170" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J170" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K170" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L170" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M170" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N170" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O170" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P170" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q170" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R170" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S170" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="V170" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W170" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F171" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G171" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H171" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I171" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J171" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K171" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L171" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M171" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N171" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O171" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P171" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q171" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R171" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S171" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="V171" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W171" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F172" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G172" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H172" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I172" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J172" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K172" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L172" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M172" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N172" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O172" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P172" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q172" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R172" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S172" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="V172" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W172" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F173" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G173" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H173" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I173" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J173" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K173" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L173" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M173" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N173" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O173" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P173" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q173" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R173" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S173" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="V173" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W173" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F174" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G174" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H174" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I174" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J174" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K174" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L174" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M174" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N174" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O174" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P174" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q174" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R174" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S174" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V174" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W174" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F175" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G175" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H175" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I175" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J175" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K175" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L175" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M175" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N175" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O175" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P175" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q175" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R175" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S175" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V175" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W175" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F176" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G176" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H176" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I176" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J176" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K176" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L176" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M176" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N176" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O176" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P176" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q176" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R176" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S176" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V176" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W176" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F177" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G177" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H177" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I177" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J177" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K177" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L177" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M177" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N177" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O177" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P177" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q177" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R177" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S177" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V177" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W177" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F178" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G178" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H178" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I178" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J178" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K178" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L178" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M178" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N178" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O178" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P178" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q178" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R178" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S178" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V178" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W178" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F179" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G179" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H179" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I179" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J179" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K179" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L179" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M179" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N179" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O179" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P179" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q179" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R179" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S179" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V179" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W179" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F180" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G180" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H180" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I180" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J180" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K180" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L180" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M180" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N180" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O180" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P180" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q180" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R180" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S180" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V180" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W180" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F181" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G181" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H181" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I181" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J181" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K181" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L181" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M181" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N181" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O181" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P181" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q181" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R181" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S181" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V181" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W181" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F182" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G182" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H182" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I182" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J182" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K182" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L182" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M182" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N182" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O182" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P182" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q182" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R182" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S182" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V182" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W182" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F183" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G183" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H183" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I183" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J183" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K183" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L183" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M183" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N183" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O183" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P183" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q183" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R183" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S183" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V183" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W183" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F184" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G184" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H184" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I184" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J184" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K184" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L184" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M184" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N184" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O184" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P184" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q184" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R184" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S184" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V184" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W184" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F185" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G185" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H185" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I185" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J185" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K185" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L185" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M185" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N185" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O185" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P185" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q185" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R185" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S185" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V185" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W185" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F186" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G186" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H186" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I186" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J186" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K186" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L186" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M186" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N186" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O186" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P186" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q186" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R186" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S186" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V186" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W186" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F187" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G187" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H187" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I187" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J187" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K187" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L187" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M187" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N187" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O187" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P187" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q187" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R187" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S187" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V187" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W187" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F188" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G188" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H188" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I188" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J188" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K188" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L188" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M188" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N188" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O188" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P188" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q188" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R188" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S188" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V188" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W188" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F189" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G189" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H189" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I189" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J189" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K189" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L189" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M189" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N189" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O189" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P189" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q189" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R189" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S189" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V189" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W189" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F190" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G190" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H190" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I190" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J190" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K190" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L190" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M190" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N190" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O190" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P190" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q190" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R190" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S190" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V190" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W190" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F191" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G191" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H191" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I191" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J191" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K191" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L191" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M191" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N191" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O191" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P191" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q191" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R191" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S191" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V191" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W191" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F192" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G192" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H192" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I192" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J192" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K192" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L192" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M192" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N192" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O192" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P192" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q192" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R192" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S192" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V192" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W192" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F193" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G193" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H193" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I193" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="J193" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="K193" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="L193" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M193" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N193" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O193" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P193" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q193" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="R193" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S193" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V193" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W193" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/py_test_ui/EXCEL FILE/recordCal_PM.xlsx
+++ b/py_test_ui/EXCEL FILE/recordCal_PM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG224"/>
+  <dimension ref="A1:AG227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27137,6 +27137,363 @@
       <c r="AF224" t="inlineStr"/>
       <c r="AG224" t="inlineStr"/>
     </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>368052</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>PYT3_08805</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Electrical Safety Analyzer</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W225" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X225" t="inlineStr"/>
+      <c r="Y225" t="inlineStr"/>
+      <c r="Z225" t="inlineStr"/>
+      <c r="AA225" t="inlineStr"/>
+      <c r="AB225" t="inlineStr"/>
+      <c r="AC225" t="inlineStr"/>
+      <c r="AD225" t="inlineStr"/>
+      <c r="AE225" t="inlineStr"/>
+      <c r="AF225" t="inlineStr"/>
+      <c r="AG225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>310385</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>PYT3_08124</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Electrical Safety Analyzer</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr"/>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W226" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X226" t="inlineStr"/>
+      <c r="Y226" t="inlineStr"/>
+      <c r="Z226" t="inlineStr"/>
+      <c r="AA226" t="inlineStr"/>
+      <c r="AB226" t="inlineStr"/>
+      <c r="AC226" t="inlineStr"/>
+      <c r="AD226" t="inlineStr"/>
+      <c r="AE226" t="inlineStr"/>
+      <c r="AF226" t="inlineStr"/>
+      <c r="AG226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>310387</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>PYT3_08126</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Calibrate Unit</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>PANALEE UEASUNTHONNOP</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>566152</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>ITTIPAT IEMDEE</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>PM doable</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>Perform CAL</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Electrical Safety Analyzer</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr"/>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="X227" t="inlineStr"/>
+      <c r="Y227" t="inlineStr"/>
+      <c r="Z227" t="inlineStr"/>
+      <c r="AA227" t="inlineStr"/>
+      <c r="AB227" t="inlineStr"/>
+      <c r="AC227" t="inlineStr"/>
+      <c r="AD227" t="inlineStr"/>
+      <c r="AE227" t="inlineStr"/>
+      <c r="AF227" t="inlineStr"/>
+      <c r="AG227" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
